--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>16.8964518845095</v>
+        <v>0.2388686666666666</v>
       </c>
       <c r="H2">
-        <v>16.8964518845095</v>
+        <v>0.716606</v>
       </c>
       <c r="I2">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="J2">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>1233.929014036503</v>
+        <v>22.64471400856867</v>
       </c>
       <c r="R2">
-        <v>1233.929014036503</v>
+        <v>203.802426077118</v>
       </c>
       <c r="S2">
-        <v>0.1237751880419182</v>
+        <v>0.002074336741423594</v>
       </c>
       <c r="T2">
-        <v>0.1237751880419182</v>
+        <v>0.002074336741423595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>16.8964518845095</v>
+        <v>0.2388686666666666</v>
       </c>
       <c r="H3">
-        <v>16.8964518845095</v>
+        <v>0.716606</v>
       </c>
       <c r="I3">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="J3">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>2448.121285503942</v>
+        <v>34.7891581117031</v>
       </c>
       <c r="R3">
-        <v>2448.121285503942</v>
+        <v>313.102423005328</v>
       </c>
       <c r="S3">
-        <v>0.2455705871372832</v>
+        <v>0.003186811228748294</v>
       </c>
       <c r="T3">
-        <v>0.2455705871372832</v>
+        <v>0.003186811228748295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>16.8964518845095</v>
+        <v>0.2388686666666666</v>
       </c>
       <c r="H4">
-        <v>16.8964518845095</v>
+        <v>0.716606</v>
       </c>
       <c r="I4">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="J4">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>1149.292584385355</v>
+        <v>17.38389907851911</v>
       </c>
       <c r="R4">
-        <v>1149.292584385355</v>
+        <v>156.455091706672</v>
       </c>
       <c r="S4">
-        <v>0.1152853236525576</v>
+        <v>0.001592427290277412</v>
       </c>
       <c r="T4">
-        <v>0.1152853236525576</v>
+        <v>0.001592427290277412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>16.8964518845095</v>
+        <v>0.2388686666666666</v>
       </c>
       <c r="H5">
-        <v>16.8964518845095</v>
+        <v>0.716606</v>
       </c>
       <c r="I5">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="J5">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>1289.984203342228</v>
+        <v>18.24624665509555</v>
       </c>
       <c r="R5">
-        <v>1289.984203342228</v>
+        <v>164.21621989586</v>
       </c>
       <c r="S5">
-        <v>0.1293980735710822</v>
+        <v>0.001671421410551717</v>
       </c>
       <c r="T5">
-        <v>0.1293980735710822</v>
+        <v>0.001671421410551718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>16.8964518845095</v>
+        <v>0.2388686666666666</v>
       </c>
       <c r="H6">
-        <v>16.8964518845095</v>
+        <v>0.716606</v>
       </c>
       <c r="I6">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="J6">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>963.2957563150782</v>
+        <v>13.89902387630533</v>
       </c>
       <c r="R6">
-        <v>963.2957563150782</v>
+        <v>125.091214886748</v>
       </c>
       <c r="S6">
-        <v>0.09662801670238821</v>
+        <v>0.00127320026588255</v>
       </c>
       <c r="T6">
-        <v>0.09662801670238821</v>
+        <v>0.00127320026588255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>16.8964518845095</v>
+        <v>0.2388686666666666</v>
       </c>
       <c r="H7">
-        <v>16.8964518845095</v>
+        <v>0.716606</v>
       </c>
       <c r="I7">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="J7">
-        <v>0.8932772842379251</v>
+        <v>0.01233282798877973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>1820.560626852165</v>
+        <v>27.66956499456111</v>
       </c>
       <c r="R7">
-        <v>1820.560626852165</v>
+        <v>249.0260849510499</v>
       </c>
       <c r="S7">
-        <v>0.1826200951326955</v>
+        <v>0.002534631051896166</v>
       </c>
       <c r="T7">
-        <v>0.1826200951326955</v>
+        <v>0.002534631051896166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.01867355599047</v>
+        <v>16.910438</v>
       </c>
       <c r="H8">
-        <v>2.01867355599047</v>
+        <v>50.731314</v>
       </c>
       <c r="I8">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="J8">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>147.4214756820344</v>
+        <v>1603.107002744738</v>
       </c>
       <c r="R8">
-        <v>147.4214756820344</v>
+        <v>14427.96302470265</v>
       </c>
       <c r="S8">
-        <v>0.01478782058480804</v>
+        <v>0.1468503313827922</v>
       </c>
       <c r="T8">
-        <v>0.01478782058480804</v>
+        <v>0.1468503313827922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.01867355599047</v>
+        <v>16.910438</v>
       </c>
       <c r="H9">
-        <v>2.01867355599047</v>
+        <v>50.731314</v>
       </c>
       <c r="I9">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="J9">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>292.4849391270685</v>
+        <v>2462.859233610181</v>
       </c>
       <c r="R9">
-        <v>292.4849391270685</v>
+        <v>22165.73310249163</v>
       </c>
       <c r="S9">
-        <v>0.02933910940423916</v>
+        <v>0.2256067087135128</v>
       </c>
       <c r="T9">
-        <v>0.02933910940423916</v>
+        <v>0.2256067087135129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.01867355599047</v>
+        <v>16.910438</v>
       </c>
       <c r="H10">
-        <v>2.01867355599047</v>
+        <v>50.731314</v>
       </c>
       <c r="I10">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="J10">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>137.3096886880528</v>
+        <v>1230.673539848485</v>
       </c>
       <c r="R10">
-        <v>137.3096886880528</v>
+        <v>11076.06185863637</v>
       </c>
       <c r="S10">
-        <v>0.01377350912735586</v>
+        <v>0.112734095005111</v>
       </c>
       <c r="T10">
-        <v>0.01377350912735586</v>
+        <v>0.112734095005111</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.01867355599047</v>
+        <v>16.910438</v>
       </c>
       <c r="H11">
-        <v>2.01867355599047</v>
+        <v>50.731314</v>
       </c>
       <c r="I11">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="J11">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>154.1185697880016</v>
+        <v>1291.722464479927</v>
       </c>
       <c r="R11">
-        <v>154.1185697880016</v>
+        <v>11625.50218031934</v>
       </c>
       <c r="S11">
-        <v>0.01545960483890289</v>
+        <v>0.1183263947064664</v>
       </c>
       <c r="T11">
-        <v>0.01545960483890289</v>
+        <v>0.1183263947064665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.01867355599047</v>
+        <v>16.910438</v>
       </c>
       <c r="H12">
-        <v>2.01867355599047</v>
+        <v>50.731314</v>
       </c>
       <c r="I12">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="J12">
-        <v>0.1067227157620749</v>
+        <v>0.8730886557003056</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>115.0880482578629</v>
+        <v>983.965728116068</v>
       </c>
       <c r="R12">
-        <v>115.0880482578629</v>
+        <v>8855.691553044613</v>
       </c>
       <c r="S12">
-        <v>0.01154446054226012</v>
+        <v>0.0901347776509981</v>
       </c>
       <c r="T12">
-        <v>0.01154446054226012</v>
+        <v>0.09013477765099812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.910438</v>
+      </c>
+      <c r="H13">
+        <v>50.731314</v>
+      </c>
+      <c r="I13">
+        <v>0.8730886557003056</v>
+      </c>
+      <c r="J13">
+        <v>0.8730886557003056</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N13">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P13">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q13">
+        <v>1958.835664203883</v>
+      </c>
+      <c r="R13">
+        <v>17629.52097783495</v>
+      </c>
+      <c r="S13">
+        <v>0.1794363482414251</v>
+      </c>
+      <c r="T13">
+        <v>0.1794363482414251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.219216666666667</v>
+      </c>
+      <c r="H14">
+        <v>6.65765</v>
+      </c>
+      <c r="I14">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="J14">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>94.799851</v>
+      </c>
+      <c r="N14">
+        <v>284.399553</v>
+      </c>
+      <c r="O14">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P14">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q14">
+        <v>210.3814093367167</v>
+      </c>
+      <c r="R14">
+        <v>1893.43268403045</v>
+      </c>
+      <c r="S14">
+        <v>0.0192716890544299</v>
+      </c>
+      <c r="T14">
+        <v>0.0192716890544299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.01867355599047</v>
-      </c>
-      <c r="H13">
-        <v>2.01867355599047</v>
-      </c>
-      <c r="I13">
-        <v>0.1067227157620749</v>
-      </c>
-      <c r="J13">
-        <v>0.1067227157620749</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N13">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O13">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P13">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q13">
-        <v>217.5082449039618</v>
-      </c>
-      <c r="R13">
-        <v>217.5082449039618</v>
-      </c>
-      <c r="S13">
-        <v>0.02181821126450881</v>
-      </c>
-      <c r="T13">
-        <v>0.02181821126450881</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.219216666666667</v>
+      </c>
+      <c r="H15">
+        <v>6.65765</v>
+      </c>
+      <c r="I15">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="J15">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N15">
+        <v>436.924088</v>
+      </c>
+      <c r="O15">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P15">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q15">
+        <v>323.2097393859111</v>
+      </c>
+      <c r="R15">
+        <v>2908.8876544732</v>
+      </c>
+      <c r="S15">
+        <v>0.02960716736543663</v>
+      </c>
+      <c r="T15">
+        <v>0.02960716736543664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.219216666666667</v>
+      </c>
+      <c r="H16">
+        <v>6.65765</v>
+      </c>
+      <c r="I16">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="J16">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N16">
+        <v>218.327912</v>
+      </c>
+      <c r="O16">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P16">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q16">
+        <v>161.5056470363111</v>
+      </c>
+      <c r="R16">
+        <v>1453.5508233268</v>
+      </c>
+      <c r="S16">
+        <v>0.01479449453272149</v>
+      </c>
+      <c r="T16">
+        <v>0.01479449453272149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.219216666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.65765</v>
+      </c>
+      <c r="I17">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="J17">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N17">
+        <v>229.15831</v>
+      </c>
+      <c r="O17">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P17">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q17">
+        <v>169.5173136190556</v>
+      </c>
+      <c r="R17">
+        <v>1525.6558225715</v>
+      </c>
+      <c r="S17">
+        <v>0.01552839182753094</v>
+      </c>
+      <c r="T17">
+        <v>0.01552839182753095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.219216666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.65765</v>
+      </c>
+      <c r="I18">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="J18">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N18">
+        <v>174.560658</v>
+      </c>
+      <c r="O18">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P18">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q18">
+        <v>129.1293071926333</v>
+      </c>
+      <c r="R18">
+        <v>1162.1637647337</v>
+      </c>
+      <c r="S18">
+        <v>0.01182870608137939</v>
+      </c>
+      <c r="T18">
+        <v>0.01182870608137939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.219216666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.65765</v>
+      </c>
+      <c r="I19">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="J19">
+        <v>0.1145785163109148</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N19">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q19">
+        <v>257.0649413848611</v>
+      </c>
+      <c r="R19">
+        <v>2313.58447246375</v>
+      </c>
+      <c r="S19">
+        <v>0.02354806744941643</v>
+      </c>
+      <c r="T19">
+        <v>0.02354806744941643</v>
       </c>
     </row>
   </sheetData>
